--- a/ciclo1.xlsx
+++ b/ciclo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\PensamientoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DBF79B0-3AA0-426A-B796-81ECACFA9DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6322AAB-3C18-4AD8-B78C-9B0B019EF5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="1635" windowWidth="9990" windowHeight="10200" xr2:uid="{83A84F2E-DCBF-4949-BD45-9B99F41998C3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83A84F2E-DCBF-4949-BD45-9B99F41998C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/ciclo1.xlsx
+++ b/ciclo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\PensamientoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6322AAB-3C18-4AD8-B78C-9B0B019EF5BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9783B1D5-6578-4FB5-B8CF-FB216EE5685A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83A84F2E-DCBF-4949-BD45-9B99F41998C3}"/>
+    <workbookView xWindow="39360" yWindow="2325" windowWidth="10935" windowHeight="11055" xr2:uid="{83A84F2E-DCBF-4949-BD45-9B99F41998C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,27 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>x</t>
+    <t>num</t>
   </si>
   <si>
-    <t>n</t>
+    <t>den</t>
   </si>
   <si>
-    <t>cont</t>
-  </si>
-  <si>
-    <t>acum</t>
-  </si>
-  <si>
-    <t>1*2</t>
-  </si>
-  <si>
-    <t>2*2</t>
-  </si>
-  <si>
-    <t>4*2</t>
+    <t>restas</t>
   </si>
 </sst>
 </file>
@@ -417,15 +405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B0FD79-376F-410E-A140-340DB5ECA055}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,125 +430,122 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
